--- a/medicine/Enfance/NUK_(marque)/NUK_(marque).xlsx
+++ b/medicine/Enfance/NUK_(marque)/NUK_(marque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 NUK est l'acronyme de l'allemand Natürlich Und Kiefergerecht (« naturel et orthodontique »). 
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1956, les dentistes Wilhelm Balters et Adolf Müller développent une tétine aux formes asymétriques pour nourrir et calmer les nourrissons[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1956, les dentistes Wilhelm Balters et Adolf Müller développent une tétine aux formes asymétriques pour nourrir et calmer les nourrissons,.
 En effet, les dentistes-odontologues ont observé que les nourrissons allaités sont moins souvent atteints de malocclusion dentaire et de malformations de la mâchoire plus tard que les enfants non allaités. À mesure que le bébé tète, le mamelon de la mère se déforme et s'adapte à l'anatomie du palais de l'enfant.
 Au moment de son lancement sur le marché en 1956, la gamme était constituée d'une tétine pour biberon et d'une tétine-sucette. Les produits étaient vendus par Hanseatische Gummiwarenfabrik GmbH comme des dispositifs thérapeutiques pour corriger les malocclusions et les déformations des mâchoires.
 En 1969, la société Hanseatische Gummiwarenfabrik GmbH devient Mapa GmbH.
@@ -548,7 +562,9 @@
           <t>Gamme de produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les tétines pour biberons et tétine-sucette NUK sont en silicone et en latex. Elles existent en différentes tailles: taille 1 pour les nouveau-nés et nourrissons entre 0 et 6 mois, taille 2 pour les bébés à partir de 6 mois et taille 3 pour les enfants à partir de 18 mois. 
 En plus des tétines et biberons, NUK propose également d'autres produits. La gamme est divisée en catégories :
@@ -584,9 +600,11 @@
           <t>NUK Medic Pro</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NUK dispose d'une gamme de produits dédiée aux maternités, hôpitaux et cliniques : "NUK Medic Pro". Celle-ci est développée en collaboration avec des professionnels de santé et compte des produits spéciaux pour les prématurés ou les enfants nés avec des malformations[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NUK dispose d'une gamme de produits dédiée aux maternités, hôpitaux et cliniques : "NUK Medic Pro". Celle-ci est développée en collaboration avec des professionnels de santé et compte des produits spéciaux pour les prématurés ou les enfants nés avec des malformations,.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chauffe biberon Nuk.
